--- a/medicine/Mort/Colonne_de_la_Victoire_(La_Réunion)/Colonne_de_la_Victoire_(La_Réunion).xlsx
+++ b/medicine/Mort/Colonne_de_la_Victoire_(La_Réunion)/Colonne_de_la_Victoire_(La_Réunion).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colonne_de_la_Victoire_(La_R%C3%A9union)</t>
+          <t>Colonne_de_la_Victoire_(La_Réunion)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La colonne de la Victoire est une colonne commémorative de l'île de La Réunion, département et région d'outre-mer français dans le sud-ouest de l'océan Indien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colonne_de_la_Victoire_(La_R%C3%A9union)</t>
+          <t>Colonne_de_la_Victoire_(La_Réunion)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Située dans le centre-ville de Saint-Denis, le chef-lieu, ce monument aux morts forme un rond-point marquant l'extrémité méridionale de l'avenue de la Victoire ainsi que l'extrémité septentrionale de la rue de Paris, à un angle de l'hôtel de ville de Saint-Denis. 
-La colonne en totalité, y compris son socle, fait l'objet d'une inscription au titre des Monuments historiques depuis le 17 octobre 2007[1],[2].
+La colonne en totalité, y compris son socle, fait l'objet d'une inscription au titre des Monuments historiques depuis le 17 octobre 2007,.
 </t>
         </is>
       </c>
